--- a/data/01-12-2025-nodes.xlsx
+++ b/data/01-12-2025-nodes.xlsx
@@ -13352,10 +13352,10 @@
       </c>
       <c r="H300" s="2"/>
       <c r="I300" s="3">
-        <v>45992.23775908565</v>
+        <v>45992</v>
       </c>
       <c r="J300" s="3">
-        <v>45992.23775908565</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="301" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -13382,10 +13382,10 @@
       </c>
       <c r="H301" s="8"/>
       <c r="I301" s="9">
-        <v>45992.23892246527</v>
+        <v>45992</v>
       </c>
       <c r="J301" s="9">
-        <v>45992.23892246527</v>
+        <v>45992</v>
       </c>
     </row>
   </sheetData>
